--- a/data_craw/quarter/balance_sheet_quarter/tcb.xlsx
+++ b/data_craw/quarter/balance_sheet_quarter/tcb.xlsx
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2019_q3</t>
+          <t>2020_q3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2019_q4</t>
+          <t>2020_q4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2020_q1</t>
+          <t>2021_q1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2020_q2</t>
+          <t>2021_q2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2020_q3</t>
+          <t>2021_q3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2020_q4</t>
+          <t>2021_q4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2021_q1</t>
+          <t>2022_q1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2021_q2</t>
+          <t>2022_q2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2021_q3</t>
+          <t>2022_q3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2021_q4</t>
+          <t>2022_q4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2022_q1</t>
+          <t>2023_q1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2022_q2</t>
+          <t>2023_q2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2022_q3</t>
+          <t>2023_q3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2022_q4</t>
+          <t>2023_q4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2023_q1</t>
+          <t>2024_q1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2023_q2</t>
+          <t>2024_q2</t>
         </is>
       </c>
     </row>
@@ -573,53 +573,45 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5409433000000</v>
+        <v>4205407000000</v>
       </c>
       <c r="C4" t="n">
-        <v>4820627000000</v>
+        <v>3663615000000</v>
       </c>
       <c r="D4" t="n">
-        <v>4150743000000</v>
+        <v>4272683000000</v>
       </c>
       <c r="E4" t="n">
-        <v>4106425000000</v>
+        <v>3553612000000</v>
       </c>
       <c r="F4" t="n">
-        <v>4205407000000</v>
+        <v>3303309000000</v>
       </c>
       <c r="G4" t="n">
-        <v>3663615000000</v>
+        <v>3578643000000</v>
       </c>
       <c r="H4" t="n">
-        <v>4272683000000</v>
+        <v>3276768000000</v>
       </c>
       <c r="I4" t="n">
-        <v>3553612000000</v>
+        <v>3204430000000</v>
       </c>
       <c r="J4" t="n">
-        <v>3303309000000</v>
+        <v>3025551000000</v>
       </c>
       <c r="K4" t="n">
-        <v>3578643000000</v>
+        <v>4215721000000</v>
       </c>
       <c r="L4" t="n">
-        <v>3276768000000</v>
+        <v>2852199000000</v>
       </c>
       <c r="M4" t="n">
-        <v>3204430000000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3025551000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>4215721000000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2852199000000</v>
-      </c>
-      <c r="Q4" t="n">
         <v>3112603000000</v>
       </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -674,53 +666,45 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6563740000000</v>
+        <v>9728941000000</v>
       </c>
       <c r="C7" t="n">
-        <v>3192256000000</v>
+        <v>10253324000000</v>
       </c>
       <c r="D7" t="n">
-        <v>5284207000000</v>
+        <v>1764015000000</v>
       </c>
       <c r="E7" t="n">
-        <v>8844670000000</v>
+        <v>4404948000000</v>
       </c>
       <c r="F7" t="n">
-        <v>9728941000000</v>
+        <v>3395192000000</v>
       </c>
       <c r="G7" t="n">
-        <v>10253324000000</v>
+        <v>4908529000000</v>
       </c>
       <c r="H7" t="n">
-        <v>1764015000000</v>
+        <v>8999152000000</v>
       </c>
       <c r="I7" t="n">
-        <v>4404948000000</v>
+        <v>4813822000000</v>
       </c>
       <c r="J7" t="n">
-        <v>3395192000000</v>
+        <v>4708805000000</v>
       </c>
       <c r="K7" t="n">
-        <v>4908529000000</v>
+        <v>11475590000000</v>
       </c>
       <c r="L7" t="n">
-        <v>8999152000000</v>
+        <v>15834434000000</v>
       </c>
       <c r="M7" t="n">
-        <v>4813822000000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>4708805000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>11475590000000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>15834434000000</v>
-      </c>
-      <c r="Q7" t="n">
         <v>7860356000000</v>
       </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -798,53 +782,45 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>43304052000000</v>
+        <v>26597264000000</v>
       </c>
       <c r="C11" t="n">
-        <v>47990224000000</v>
+        <v>28994954000000</v>
       </c>
       <c r="D11" t="n">
-        <v>30990383000000</v>
+        <v>38361058000000</v>
       </c>
       <c r="E11" t="n">
-        <v>45284968000000</v>
+        <v>52084900000000</v>
       </c>
       <c r="F11" t="n">
-        <v>26597264000000</v>
+        <v>77627953000000</v>
       </c>
       <c r="G11" t="n">
-        <v>28994954000000</v>
+        <v>70584154000000</v>
       </c>
       <c r="H11" t="n">
-        <v>38361058000000</v>
+        <v>72530371000000</v>
       </c>
       <c r="I11" t="n">
-        <v>52084900000000</v>
+        <v>72130842000000</v>
       </c>
       <c r="J11" t="n">
-        <v>77627953000000</v>
+        <v>72296806000000</v>
       </c>
       <c r="K11" t="n">
-        <v>70584154000000</v>
+        <v>82873754000000</v>
       </c>
       <c r="L11" t="n">
-        <v>72530371000000</v>
+        <v>66839068000000</v>
       </c>
       <c r="M11" t="n">
-        <v>72130842000000</v>
-      </c>
-      <c r="N11" t="n">
-        <v>72296806000000</v>
-      </c>
-      <c r="O11" t="n">
-        <v>82873754000000</v>
-      </c>
-      <c r="P11" t="n">
-        <v>66839068000000</v>
-      </c>
-      <c r="Q11" t="n">
         <v>71193282000000</v>
       </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -853,53 +829,45 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28819944000000</v>
+        <v>22303474000000</v>
       </c>
       <c r="C12" t="n">
-        <v>38596420000000</v>
+        <v>21112630000000</v>
       </c>
       <c r="D12" t="n">
-        <v>26563973000000</v>
+        <v>22454030000000</v>
       </c>
       <c r="E12" t="n">
-        <v>36014074000000</v>
+        <v>31309624000000</v>
       </c>
       <c r="F12" t="n">
-        <v>22303474000000</v>
+        <v>51058282000000</v>
       </c>
       <c r="G12" t="n">
-        <v>21112630000000</v>
+        <v>39519623000000</v>
       </c>
       <c r="H12" t="n">
-        <v>22454030000000</v>
+        <v>58125835000000</v>
       </c>
       <c r="I12" t="n">
-        <v>31309624000000</v>
+        <v>57270411000000</v>
       </c>
       <c r="J12" t="n">
-        <v>51058282000000</v>
+        <v>65183275000000</v>
       </c>
       <c r="K12" t="n">
-        <v>39519623000000</v>
+        <v>69925143000000</v>
       </c>
       <c r="L12" t="n">
-        <v>58125835000000</v>
+        <v>56674680000000</v>
       </c>
       <c r="M12" t="n">
-        <v>57270411000000</v>
-      </c>
-      <c r="N12" t="n">
-        <v>65183275000000</v>
-      </c>
-      <c r="O12" t="n">
-        <v>69925143000000</v>
-      </c>
-      <c r="P12" t="n">
-        <v>56674680000000</v>
-      </c>
-      <c r="Q12" t="n">
         <v>63214943000000</v>
       </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -908,53 +876,45 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14484108000000</v>
+        <v>4293790000000</v>
       </c>
       <c r="C13" t="n">
-        <v>9393804000000</v>
+        <v>7882324000000</v>
       </c>
       <c r="D13" t="n">
-        <v>4426410000000</v>
+        <v>15907028000000</v>
       </c>
       <c r="E13" t="n">
-        <v>9270894000000</v>
+        <v>20775276000000</v>
       </c>
       <c r="F13" t="n">
-        <v>4293790000000</v>
+        <v>26569671000000</v>
       </c>
       <c r="G13" t="n">
-        <v>7882324000000</v>
+        <v>31064531000000</v>
       </c>
       <c r="H13" t="n">
-        <v>15907028000000</v>
+        <v>14404536000000</v>
       </c>
       <c r="I13" t="n">
-        <v>20775276000000</v>
+        <v>14961531000000</v>
       </c>
       <c r="J13" t="n">
-        <v>26569671000000</v>
+        <v>7214631000000</v>
       </c>
       <c r="K13" t="n">
-        <v>31064531000000</v>
+        <v>13049711000000</v>
       </c>
       <c r="L13" t="n">
-        <v>14404536000000</v>
+        <v>10265488000000</v>
       </c>
       <c r="M13" t="n">
-        <v>14961531000000</v>
-      </c>
-      <c r="N13" t="n">
-        <v>7214631000000</v>
-      </c>
-      <c r="O13" t="n">
-        <v>13049711000000</v>
-      </c>
-      <c r="P13" t="n">
-        <v>10265488000000</v>
-      </c>
-      <c r="Q13" t="n">
         <v>8079439000000</v>
       </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1084,25 +1044,25 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>-101100000000</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-101100000000</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-101100000000</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-101100000000</v>
+      </c>
       <c r="M19" t="n">
         <v>-101100000000</v>
       </c>
-      <c r="N19" t="n">
-        <v>-101100000000</v>
-      </c>
-      <c r="O19" t="n">
-        <v>-101100000000</v>
-      </c>
-      <c r="P19" t="n">
-        <v>-101100000000</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>-101100000000</v>
-      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1111,53 +1071,45 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6977978000000</v>
+        <v>10054880000000</v>
       </c>
       <c r="C20" t="n">
-        <v>10041556000000</v>
+        <v>8347576000000</v>
       </c>
       <c r="D20" t="n">
-        <v>10436754000000</v>
+        <v>5509124000000</v>
       </c>
       <c r="E20" t="n">
-        <v>9340287000000</v>
+        <v>7579192000000</v>
       </c>
       <c r="F20" t="n">
-        <v>10054880000000</v>
+        <v>6080683000000</v>
       </c>
       <c r="G20" t="n">
-        <v>8347576000000</v>
+        <v>5070812000000</v>
       </c>
       <c r="H20" t="n">
-        <v>5509124000000</v>
+        <v>3699101000000</v>
       </c>
       <c r="I20" t="n">
-        <v>7579192000000</v>
+        <v>831875000000</v>
       </c>
       <c r="J20" t="n">
-        <v>6080683000000</v>
+        <v>1434528000000</v>
       </c>
       <c r="K20" t="n">
-        <v>5070812000000</v>
+        <v>961034000000</v>
       </c>
       <c r="L20" t="n">
-        <v>3699101000000</v>
+        <v>78555000000</v>
       </c>
       <c r="M20" t="n">
-        <v>831875000000</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1434528000000</v>
-      </c>
-      <c r="O20" t="n">
-        <v>961034000000</v>
-      </c>
-      <c r="P20" t="n">
-        <v>78555000000</v>
-      </c>
-      <c r="Q20" t="n">
         <v>1719515000000</v>
       </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1166,53 +1118,45 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6988338000000</v>
+        <v>10063292000000</v>
       </c>
       <c r="C21" t="n">
-        <v>10052963000000</v>
+        <v>8357447000000</v>
       </c>
       <c r="D21" t="n">
-        <v>10446156000000</v>
+        <v>5521877000000</v>
       </c>
       <c r="E21" t="n">
-        <v>9364565000000</v>
+        <v>7594177000000</v>
       </c>
       <c r="F21" t="n">
-        <v>10063292000000</v>
+        <v>6116848000000</v>
       </c>
       <c r="G21" t="n">
-        <v>8357447000000</v>
+        <v>5074479000000</v>
       </c>
       <c r="H21" t="n">
-        <v>5521877000000</v>
+        <v>3757777000000</v>
       </c>
       <c r="I21" t="n">
-        <v>7594177000000</v>
+        <v>890551000000</v>
       </c>
       <c r="J21" t="n">
-        <v>6116848000000</v>
+        <v>1435098000000</v>
       </c>
       <c r="K21" t="n">
-        <v>5074479000000</v>
+        <v>961034000000</v>
       </c>
       <c r="L21" t="n">
-        <v>3757777000000</v>
+        <v>78555000000</v>
       </c>
       <c r="M21" t="n">
-        <v>890551000000</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1435098000000</v>
-      </c>
-      <c r="O21" t="n">
-        <v>961034000000</v>
-      </c>
-      <c r="P21" t="n">
-        <v>78555000000</v>
-      </c>
-      <c r="Q21" t="n">
         <v>1719515000000</v>
       </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1221,44 +1165,36 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-10360000000</v>
+        <v>-8412000000</v>
       </c>
       <c r="C22" t="n">
-        <v>-11407000000</v>
+        <v>-9871000000</v>
       </c>
       <c r="D22" t="n">
-        <v>-9402000000</v>
+        <v>-12753000000</v>
       </c>
       <c r="E22" t="n">
-        <v>-24278000000</v>
+        <v>-14985000000</v>
       </c>
       <c r="F22" t="n">
-        <v>-8412000000</v>
+        <v>-36165000000</v>
       </c>
       <c r="G22" t="n">
-        <v>-9871000000</v>
+        <v>-3667000000</v>
       </c>
       <c r="H22" t="n">
-        <v>-12753000000</v>
+        <v>-58676000000</v>
       </c>
       <c r="I22" t="n">
-        <v>-14985000000</v>
+        <v>-58676000000</v>
       </c>
       <c r="J22" t="n">
-        <v>-36165000000</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-3667000000</v>
-      </c>
-      <c r="L22" t="n">
-        <v>-58676000000</v>
-      </c>
-      <c r="M22" t="n">
-        <v>-58676000000</v>
-      </c>
-      <c r="N22" t="n">
         <v>-570000000</v>
       </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
@@ -1272,33 +1208,33 @@
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>51840000000</v>
+      </c>
+      <c r="F23" t="n">
+        <v>25202000000</v>
+      </c>
+      <c r="G23" t="n">
+        <v>293768000000</v>
+      </c>
+      <c r="H23" t="n">
+        <v>338956000000</v>
+      </c>
       <c r="I23" t="n">
-        <v>51840000000</v>
+        <v>61239000000</v>
       </c>
       <c r="J23" t="n">
-        <v>25202000000</v>
-      </c>
-      <c r="K23" t="n">
-        <v>293768000000</v>
-      </c>
-      <c r="L23" t="n">
-        <v>338956000000</v>
-      </c>
+        <v>243730000000</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>61239000000</v>
-      </c>
-      <c r="N23" t="n">
-        <v>243730000000</v>
-      </c>
+        <v>221603000000</v>
+      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="n">
-        <v>221603000000</v>
-      </c>
+      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1445,28 +1381,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>12223000000</v>
+        <v>11806000000</v>
       </c>
       <c r="C30" t="n">
-        <v>12223000000</v>
+        <v>11806000000</v>
       </c>
       <c r="D30" t="n">
-        <v>12223000000</v>
+        <v>11806000000</v>
       </c>
       <c r="E30" t="n">
-        <v>11806000000</v>
+        <v>12761000000</v>
       </c>
       <c r="F30" t="n">
-        <v>11806000000</v>
+        <v>12813000000</v>
       </c>
       <c r="G30" t="n">
-        <v>11806000000</v>
+        <v>12813000000</v>
       </c>
       <c r="H30" t="n">
-        <v>11806000000</v>
+        <v>12813000000</v>
       </c>
       <c r="I30" t="n">
-        <v>12761000000</v>
+        <v>12813000000</v>
       </c>
       <c r="J30" t="n">
         <v>12813000000</v>
@@ -1478,20 +1414,12 @@
         <v>12813000000</v>
       </c>
       <c r="M30" t="n">
-        <v>12813000000</v>
-      </c>
-      <c r="N30" t="n">
-        <v>12813000000</v>
-      </c>
-      <c r="O30" t="n">
-        <v>12813000000</v>
-      </c>
-      <c r="P30" t="n">
-        <v>12813000000</v>
-      </c>
-      <c r="Q30" t="n">
         <v>3046245000000</v>
       </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1569,53 +1497,45 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>12883000000</v>
+        <v>12466000000</v>
       </c>
       <c r="C34" t="n">
-        <v>12883000000</v>
+        <v>12466000000</v>
       </c>
       <c r="D34" t="n">
-        <v>12883000000</v>
+        <v>12466000000</v>
       </c>
       <c r="E34" t="n">
-        <v>12466000000</v>
+        <v>13910000000</v>
       </c>
       <c r="F34" t="n">
-        <v>12466000000</v>
+        <v>13962000000</v>
       </c>
       <c r="G34" t="n">
-        <v>12466000000</v>
+        <v>13962000000</v>
       </c>
       <c r="H34" t="n">
-        <v>12466000000</v>
+        <v>13962000000</v>
       </c>
       <c r="I34" t="n">
-        <v>13910000000</v>
+        <v>13962000000</v>
       </c>
       <c r="J34" t="n">
         <v>13962000000</v>
       </c>
       <c r="K34" t="n">
-        <v>13962000000</v>
+        <v>13692000000</v>
       </c>
       <c r="L34" t="n">
         <v>13962000000</v>
       </c>
       <c r="M34" t="n">
-        <v>13962000000</v>
-      </c>
-      <c r="N34" t="n">
-        <v>13962000000</v>
-      </c>
-      <c r="O34" t="n">
-        <v>13692000000</v>
-      </c>
-      <c r="P34" t="n">
-        <v>13962000000</v>
-      </c>
-      <c r="Q34" t="n">
         <v>3047394000000</v>
       </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1673,22 +1593,22 @@
         <v>-660000000</v>
       </c>
       <c r="C37" t="n">
-        <v>-660000000</v>
+        <v>660000000</v>
       </c>
       <c r="D37" t="n">
         <v>-660000000</v>
       </c>
       <c r="E37" t="n">
-        <v>-660000000</v>
+        <v>-1149000000</v>
       </c>
       <c r="F37" t="n">
-        <v>-660000000</v>
+        <v>-1149000000</v>
       </c>
       <c r="G37" t="n">
-        <v>660000000</v>
+        <v>-1149000000</v>
       </c>
       <c r="H37" t="n">
-        <v>-660000000</v>
+        <v>-1149000000</v>
       </c>
       <c r="I37" t="n">
         <v>-1149000000</v>
@@ -1696,25 +1616,17 @@
       <c r="J37" t="n">
         <v>-1149000000</v>
       </c>
-      <c r="K37" t="n">
-        <v>-1149000000</v>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>-1149000000</v>
       </c>
       <c r="M37" t="n">
         <v>-1149000000</v>
       </c>
-      <c r="N37" t="n">
-        <v>-1149000000</v>
-      </c>
+      <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
-      <c r="P37" t="n">
-        <v>-1149000000</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>-1149000000</v>
-      </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1723,53 +1635,45 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3504419000000</v>
+        <v>4272535000000</v>
       </c>
       <c r="C38" t="n">
-        <v>3207777000000</v>
+        <v>4613423000000</v>
       </c>
       <c r="D38" t="n">
-        <v>3493005000000</v>
+        <v>4726319000000</v>
       </c>
       <c r="E38" t="n">
-        <v>4126007000000</v>
+        <v>6738801000000</v>
       </c>
       <c r="F38" t="n">
-        <v>4272535000000</v>
+        <v>7106005000000</v>
       </c>
       <c r="G38" t="n">
-        <v>4613423000000</v>
+        <v>7224480000000</v>
       </c>
       <c r="H38" t="n">
-        <v>4726319000000</v>
+        <v>7265245000000</v>
       </c>
       <c r="I38" t="n">
-        <v>6738801000000</v>
+        <v>7220361000000</v>
       </c>
       <c r="J38" t="n">
-        <v>7106005000000</v>
+        <v>7281881000000</v>
       </c>
       <c r="K38" t="n">
-        <v>7224480000000</v>
+        <v>8411382000000</v>
       </c>
       <c r="L38" t="n">
-        <v>7265245000000</v>
+        <v>8274948000000</v>
       </c>
       <c r="M38" t="n">
-        <v>7220361000000</v>
-      </c>
-      <c r="N38" t="n">
-        <v>7281881000000</v>
-      </c>
-      <c r="O38" t="n">
-        <v>8411382000000</v>
-      </c>
-      <c r="P38" t="n">
-        <v>8274948000000</v>
-      </c>
-      <c r="Q38" t="n">
         <v>8742421000000</v>
       </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1778,53 +1682,45 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1111035000000</v>
+        <v>1184445000000</v>
       </c>
       <c r="C39" t="n">
-        <v>793484000000</v>
+        <v>1470942000000</v>
       </c>
       <c r="D39" t="n">
-        <v>1071752000000</v>
+        <v>1591916000000</v>
       </c>
       <c r="E39" t="n">
-        <v>1148505000000</v>
+        <v>3278175000000</v>
       </c>
       <c r="F39" t="n">
-        <v>1184445000000</v>
+        <v>3540181000000</v>
       </c>
       <c r="G39" t="n">
-        <v>1470942000000</v>
+        <v>3628729000000</v>
       </c>
       <c r="H39" t="n">
-        <v>1591916000000</v>
+        <v>3614371000000</v>
       </c>
       <c r="I39" t="n">
-        <v>3278175000000</v>
+        <v>3605711000000</v>
       </c>
       <c r="J39" t="n">
-        <v>3540181000000</v>
+        <v>3527356000000</v>
       </c>
       <c r="K39" t="n">
-        <v>3628729000000</v>
+        <v>3696812000000</v>
       </c>
       <c r="L39" t="n">
-        <v>3614371000000</v>
+        <v>3655357000000</v>
       </c>
       <c r="M39" t="n">
-        <v>3605711000000</v>
-      </c>
-      <c r="N39" t="n">
-        <v>3527356000000</v>
-      </c>
-      <c r="O39" t="n">
-        <v>3696812000000</v>
-      </c>
-      <c r="P39" t="n">
-        <v>3655357000000</v>
-      </c>
-      <c r="Q39" t="n">
         <v>3726005000000</v>
       </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1833,53 +1729,45 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2067498000000</v>
+        <v>2065130000000</v>
       </c>
       <c r="C40" t="n">
-        <v>1761468000000</v>
+        <v>2416349000000</v>
       </c>
       <c r="D40" t="n">
-        <v>2074905000000</v>
+        <v>2595431000000</v>
       </c>
       <c r="E40" t="n">
-        <v>1989411000000</v>
+        <v>4299245000000</v>
       </c>
       <c r="F40" t="n">
-        <v>2065130000000</v>
+        <v>4598424000000</v>
       </c>
       <c r="G40" t="n">
-        <v>2416349000000</v>
+        <v>4824092000000</v>
       </c>
       <c r="H40" t="n">
-        <v>2595431000000</v>
+        <v>4820113000000</v>
       </c>
       <c r="I40" t="n">
-        <v>4299245000000</v>
+        <v>4913333000000</v>
       </c>
       <c r="J40" t="n">
-        <v>4598424000000</v>
+        <v>4941976000000</v>
       </c>
       <c r="K40" t="n">
-        <v>4824092000000</v>
+        <v>5156346000000</v>
       </c>
       <c r="L40" t="n">
-        <v>4820113000000</v>
+        <v>5219842000000</v>
       </c>
       <c r="M40" t="n">
-        <v>4913333000000</v>
-      </c>
-      <c r="N40" t="n">
-        <v>4941976000000</v>
-      </c>
-      <c r="O40" t="n">
-        <v>5156346000000</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5219842000000</v>
-      </c>
-      <c r="Q40" t="n">
         <v>5436276000000</v>
       </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1888,53 +1776,45 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-956463000000</v>
+        <v>-880685000000</v>
       </c>
       <c r="C41" t="n">
-        <v>-967984000000</v>
+        <v>-945407000000</v>
       </c>
       <c r="D41" t="n">
-        <v>-1003153000000</v>
+        <v>-1003515000000</v>
       </c>
       <c r="E41" t="n">
-        <v>-840906000000</v>
+        <v>-1021070000000</v>
       </c>
       <c r="F41" t="n">
-        <v>-880685000000</v>
+        <v>-1058243000000</v>
       </c>
       <c r="G41" t="n">
-        <v>-945407000000</v>
+        <v>-1195363000000</v>
       </c>
       <c r="H41" t="n">
-        <v>-1003515000000</v>
+        <v>-1205742000000</v>
       </c>
       <c r="I41" t="n">
-        <v>-1021070000000</v>
+        <v>-1307622000000</v>
       </c>
       <c r="J41" t="n">
-        <v>-1058243000000</v>
+        <v>-1414620000000</v>
       </c>
       <c r="K41" t="n">
-        <v>-1195363000000</v>
+        <v>-1459534000000</v>
       </c>
       <c r="L41" t="n">
-        <v>-1205742000000</v>
+        <v>-1564485000000</v>
       </c>
       <c r="M41" t="n">
-        <v>-1307622000000</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-1414620000000</v>
-      </c>
-      <c r="O41" t="n">
-        <v>-1459534000000</v>
-      </c>
-      <c r="P41" t="n">
-        <v>-1564485000000</v>
-      </c>
-      <c r="Q41" t="n">
         <v>-1710271000000</v>
       </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2012,53 +1892,45 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2393384000000</v>
+        <v>3088090000000</v>
       </c>
       <c r="C45" t="n">
-        <v>2414293000000</v>
+        <v>3142481000000</v>
       </c>
       <c r="D45" t="n">
-        <v>2421253000000</v>
+        <v>3134403000000</v>
       </c>
       <c r="E45" t="n">
-        <v>2977502000000</v>
+        <v>3460626000000</v>
       </c>
       <c r="F45" t="n">
-        <v>3088090000000</v>
+        <v>3565824000000</v>
       </c>
       <c r="G45" t="n">
-        <v>3142481000000</v>
+        <v>3595751000000</v>
       </c>
       <c r="H45" t="n">
-        <v>3134403000000</v>
+        <v>3650874000000</v>
       </c>
       <c r="I45" t="n">
-        <v>3460626000000</v>
+        <v>3614650000000</v>
       </c>
       <c r="J45" t="n">
-        <v>3565824000000</v>
+        <v>3754525000000</v>
       </c>
       <c r="K45" t="n">
-        <v>3595751000000</v>
+        <v>4714570000000</v>
       </c>
       <c r="L45" t="n">
-        <v>3650874000000</v>
+        <v>4619591000000</v>
       </c>
       <c r="M45" t="n">
-        <v>3614650000000</v>
-      </c>
-      <c r="N45" t="n">
-        <v>3754525000000</v>
-      </c>
-      <c r="O45" t="n">
-        <v>4714570000000</v>
-      </c>
-      <c r="P45" t="n">
-        <v>4619591000000</v>
-      </c>
-      <c r="Q45" t="n">
         <v>5016416000000</v>
       </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2067,53 +1939,45 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3040502000000</v>
+        <v>3837044000000</v>
       </c>
       <c r="C46" t="n">
-        <v>3086148000000</v>
+        <v>3923203000000</v>
       </c>
       <c r="D46" t="n">
-        <v>3118399000000</v>
+        <v>3940305000000</v>
       </c>
       <c r="E46" t="n">
-        <v>3699629000000</v>
+        <v>4306506000000</v>
       </c>
       <c r="F46" t="n">
-        <v>3837044000000</v>
+        <v>4454651000000</v>
       </c>
       <c r="G46" t="n">
-        <v>3923203000000</v>
+        <v>4542177000000</v>
       </c>
       <c r="H46" t="n">
-        <v>3940305000000</v>
+        <v>4647666000000</v>
       </c>
       <c r="I46" t="n">
-        <v>4306506000000</v>
+        <v>4662326000000</v>
       </c>
       <c r="J46" t="n">
-        <v>4454651000000</v>
+        <v>4844711000000</v>
       </c>
       <c r="K46" t="n">
-        <v>4542177000000</v>
+        <v>5913538000000</v>
       </c>
       <c r="L46" t="n">
-        <v>4647666000000</v>
+        <v>5928078000000</v>
       </c>
       <c r="M46" t="n">
-        <v>4662326000000</v>
-      </c>
-      <c r="N46" t="n">
-        <v>4844711000000</v>
-      </c>
-      <c r="O46" t="n">
-        <v>5913538000000</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5928078000000</v>
-      </c>
-      <c r="Q46" t="n">
         <v>6517015000000</v>
       </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2122,53 +1986,45 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-647118000000</v>
+        <v>-748954000000</v>
       </c>
       <c r="C47" t="n">
-        <v>-671855000000</v>
+        <v>-780722000000</v>
       </c>
       <c r="D47" t="n">
-        <v>-697146000000</v>
+        <v>-805902000000</v>
       </c>
       <c r="E47" t="n">
-        <v>-722127000000</v>
+        <v>-845880000000</v>
       </c>
       <c r="F47" t="n">
-        <v>-748954000000</v>
+        <v>-888827000000</v>
       </c>
       <c r="G47" t="n">
-        <v>-780722000000</v>
+        <v>-946426000000</v>
       </c>
       <c r="H47" t="n">
-        <v>-805902000000</v>
+        <v>-996792000000</v>
       </c>
       <c r="I47" t="n">
-        <v>-845880000000</v>
+        <v>-1047676000000</v>
       </c>
       <c r="J47" t="n">
-        <v>-888827000000</v>
+        <v>-1090186000000</v>
       </c>
       <c r="K47" t="n">
-        <v>-946426000000</v>
+        <v>-1198968000000</v>
       </c>
       <c r="L47" t="n">
-        <v>-996792000000</v>
+        <v>-1308487000000</v>
       </c>
       <c r="M47" t="n">
-        <v>-1047676000000</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-1090186000000</v>
-      </c>
-      <c r="O47" t="n">
-        <v>-1198968000000</v>
-      </c>
-      <c r="P47" t="n">
-        <v>-1308487000000</v>
-      </c>
-      <c r="Q47" t="n">
         <v>-1500599000000</v>
       </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2246,47 +2102,39 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1169474000000</v>
+        <v>1133674000000</v>
       </c>
       <c r="C51" t="n">
-        <v>1160524000000</v>
+        <v>1124724000000</v>
       </c>
       <c r="D51" t="n">
-        <v>1151574000000</v>
+        <v>1115774000000</v>
       </c>
       <c r="E51" t="n">
-        <v>1142624000000</v>
+        <v>1106824000000</v>
       </c>
       <c r="F51" t="n">
-        <v>1133674000000</v>
+        <v>1097874000000</v>
       </c>
       <c r="G51" t="n">
-        <v>1124724000000</v>
+        <v>1088924000000</v>
       </c>
       <c r="H51" t="n">
-        <v>1115774000000</v>
+        <v>1079974000000</v>
       </c>
       <c r="I51" t="n">
-        <v>1106824000000</v>
+        <v>1071024000000</v>
       </c>
       <c r="J51" t="n">
-        <v>1097874000000</v>
+        <v>1062074000000</v>
       </c>
       <c r="K51" t="n">
-        <v>1088924000000</v>
-      </c>
-      <c r="L51" t="n">
-        <v>1079974000000</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1071024000000</v>
-      </c>
-      <c r="N51" t="n">
-        <v>1062074000000</v>
-      </c>
-      <c r="O51" t="n">
         <v>1053124000000</v>
       </c>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
     </row>
@@ -2326,18 +2174,10 @@
       <c r="K52" t="n">
         <v>1435699000000</v>
       </c>
-      <c r="L52" t="n">
-        <v>1435699000000</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1435699000000</v>
-      </c>
-      <c r="N52" t="n">
-        <v>1435699000000</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1435699000000</v>
-      </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
     </row>
@@ -2348,47 +2188,39 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-266225000000</v>
+        <v>-302025000000</v>
       </c>
       <c r="C53" t="n">
-        <v>-275175000000</v>
+        <v>-310975000000</v>
       </c>
       <c r="D53" t="n">
-        <v>-284125000000</v>
+        <v>-319925000000</v>
       </c>
       <c r="E53" t="n">
-        <v>-293075000000</v>
+        <v>-328875000000</v>
       </c>
       <c r="F53" t="n">
-        <v>-302025000000</v>
+        <v>-337825000000</v>
       </c>
       <c r="G53" t="n">
-        <v>-310975000000</v>
+        <v>-346775000000</v>
       </c>
       <c r="H53" t="n">
-        <v>-319925000000</v>
+        <v>-355725000000</v>
       </c>
       <c r="I53" t="n">
-        <v>-328875000000</v>
+        <v>-364675000000</v>
       </c>
       <c r="J53" t="n">
-        <v>-337825000000</v>
+        <v>-373625000000</v>
       </c>
       <c r="K53" t="n">
-        <v>-346775000000</v>
-      </c>
-      <c r="L53" t="n">
-        <v>-355725000000</v>
-      </c>
-      <c r="M53" t="n">
-        <v>-364675000000</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-373625000000</v>
-      </c>
-      <c r="O53" t="n">
         <v>-382575000000</v>
       </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
     </row>
@@ -2399,53 +2231,45 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>15566906000000</v>
+        <v>21878051000000</v>
       </c>
       <c r="C54" t="n">
-        <v>19334394000000</v>
+        <v>22835903000000</v>
       </c>
       <c r="D54" t="n">
-        <v>21861613000000</v>
+        <v>27336325000000</v>
       </c>
       <c r="E54" t="n">
-        <v>24062647000000</v>
+        <v>30041641000000</v>
       </c>
       <c r="F54" t="n">
-        <v>21878051000000</v>
+        <v>31920037000000</v>
       </c>
       <c r="G54" t="n">
-        <v>22835903000000</v>
+        <v>34724225000000</v>
       </c>
       <c r="H54" t="n">
-        <v>27336325000000</v>
+        <v>35820407000000</v>
       </c>
       <c r="I54" t="n">
-        <v>30041641000000</v>
+        <v>49275393000000</v>
       </c>
       <c r="J54" t="n">
-        <v>31920037000000</v>
+        <v>71795190000000</v>
       </c>
       <c r="K54" t="n">
-        <v>34724225000000</v>
+        <v>70517225000000</v>
       </c>
       <c r="L54" t="n">
-        <v>35820407000000</v>
+        <v>70304177000000</v>
       </c>
       <c r="M54" t="n">
-        <v>49275393000000</v>
-      </c>
-      <c r="N54" t="n">
-        <v>71795190000000</v>
-      </c>
-      <c r="O54" t="n">
-        <v>70517225000000</v>
-      </c>
-      <c r="P54" t="n">
-        <v>70304177000000</v>
-      </c>
-      <c r="Q54" t="n">
         <v>67878596000000</v>
       </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2454,51 +2278,43 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>9814821000000</v>
+        <v>14800995000000</v>
       </c>
       <c r="C55" t="n">
-        <v>12954103000000</v>
+        <v>16572411000000</v>
       </c>
       <c r="D55" t="n">
-        <v>14243518000000</v>
+        <v>20888411000000</v>
       </c>
       <c r="E55" t="n">
-        <v>17450115000000</v>
+        <v>23489545000000</v>
       </c>
       <c r="F55" t="n">
-        <v>14800995000000</v>
+        <v>24883360000000</v>
       </c>
       <c r="G55" t="n">
-        <v>16572411000000</v>
+        <v>28148180000000</v>
       </c>
       <c r="H55" t="n">
-        <v>20888411000000</v>
+        <v>26069013000000</v>
       </c>
       <c r="I55" t="n">
-        <v>23489545000000</v>
+        <v>40327149000000</v>
       </c>
       <c r="J55" t="n">
-        <v>24883360000000</v>
-      </c>
-      <c r="K55" t="n">
-        <v>28148180000000</v>
-      </c>
+        <v>62295994000000</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
-        <v>26069013000000</v>
+        <v>60672102000000</v>
       </c>
       <c r="M55" t="n">
-        <v>40327149000000</v>
-      </c>
-      <c r="N55" t="n">
-        <v>62295994000000</v>
-      </c>
+        <v>57751403000000</v>
+      </c>
+      <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
-      <c r="P55" t="n">
-        <v>60672102000000</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>57751403000000</v>
-      </c>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2507,53 +2323,45 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>5112440000000</v>
+        <v>5988496000000</v>
       </c>
       <c r="C56" t="n">
-        <v>5553724000000</v>
+        <v>5184822000000</v>
       </c>
       <c r="D56" t="n">
-        <v>6614041000000</v>
+        <v>5664148000000</v>
       </c>
       <c r="E56" t="n">
-        <v>5597591000000</v>
+        <v>5736585000000</v>
       </c>
       <c r="F56" t="n">
-        <v>5988496000000</v>
+        <v>6223821000000</v>
       </c>
       <c r="G56" t="n">
-        <v>5184822000000</v>
+        <v>5807801000000</v>
       </c>
       <c r="H56" t="n">
-        <v>5664148000000</v>
+        <v>7252645000000</v>
       </c>
       <c r="I56" t="n">
-        <v>5736585000000</v>
+        <v>8079003000000</v>
       </c>
       <c r="J56" t="n">
-        <v>6223821000000</v>
+        <v>8680552000000</v>
       </c>
       <c r="K56" t="n">
-        <v>5807801000000</v>
+        <v>8028730000000</v>
       </c>
       <c r="L56" t="n">
-        <v>7252645000000</v>
+        <v>8364909000000</v>
       </c>
       <c r="M56" t="n">
-        <v>8079003000000</v>
-      </c>
-      <c r="N56" t="n">
-        <v>8680552000000</v>
-      </c>
-      <c r="O56" t="n">
-        <v>8028730000000</v>
-      </c>
-      <c r="P56" t="n">
-        <v>8364909000000</v>
-      </c>
-      <c r="Q56" t="n">
         <v>8874540000000</v>
       </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2567,28 +2375,28 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="H57" t="n">
+        <v>17460000000</v>
+      </c>
+      <c r="I57" t="n">
+        <v>17460000000</v>
+      </c>
+      <c r="J57" t="n">
+        <v>21403000000</v>
+      </c>
+      <c r="K57" t="n">
+        <v>61050000000</v>
+      </c>
       <c r="L57" t="n">
-        <v>17460000000</v>
+        <v>62368000000</v>
       </c>
       <c r="M57" t="n">
-        <v>17460000000</v>
-      </c>
-      <c r="N57" t="n">
-        <v>21403000000</v>
-      </c>
-      <c r="O57" t="n">
-        <v>61050000000</v>
-      </c>
-      <c r="P57" t="n">
-        <v>62368000000</v>
-      </c>
-      <c r="Q57" t="n">
         <v>63367000000</v>
       </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2597,53 +2405,45 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>783970000000</v>
+        <v>1321618000000</v>
       </c>
       <c r="C58" t="n">
-        <v>1055475000000</v>
+        <v>1268562000000</v>
       </c>
       <c r="D58" t="n">
-        <v>1244949000000</v>
+        <v>1280326000000</v>
       </c>
       <c r="E58" t="n">
-        <v>1344710000000</v>
+        <v>1346630000000</v>
       </c>
       <c r="F58" t="n">
-        <v>1321618000000</v>
+        <v>1373335000000</v>
       </c>
       <c r="G58" t="n">
-        <v>1268562000000</v>
+        <v>1448667000000</v>
       </c>
       <c r="H58" t="n">
-        <v>1280326000000</v>
+        <v>3083929000000</v>
       </c>
       <c r="I58" t="n">
-        <v>1346630000000</v>
+        <v>1546269000000</v>
       </c>
       <c r="J58" t="n">
-        <v>1373335000000</v>
+        <v>1600742000000</v>
       </c>
       <c r="K58" t="n">
-        <v>1448667000000</v>
+        <v>1616735000000</v>
       </c>
       <c r="L58" t="n">
-        <v>3083929000000</v>
+        <v>1878336000000</v>
       </c>
       <c r="M58" t="n">
-        <v>1546269000000</v>
-      </c>
-      <c r="N58" t="n">
-        <v>1600742000000</v>
-      </c>
-      <c r="O58" t="n">
-        <v>1616735000000</v>
-      </c>
-      <c r="P58" t="n">
-        <v>1878336000000</v>
-      </c>
-      <c r="Q58" t="n">
         <v>1873472000000</v>
       </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2859,53 +2659,45 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>367538462000000</v>
+        <v>401461729000000</v>
       </c>
       <c r="C68" t="n">
-        <v>383699461000000</v>
+        <v>439602933000000</v>
       </c>
       <c r="D68" t="n">
-        <v>391807859000000</v>
+        <v>462822690000000</v>
       </c>
       <c r="E68" t="n">
-        <v>395861051000000</v>
+        <v>504304300000000</v>
       </c>
       <c r="F68" t="n">
-        <v>401461729000000</v>
+        <v>541635295000000</v>
       </c>
       <c r="G68" t="n">
-        <v>439602933000000</v>
+        <v>568811435000000</v>
       </c>
       <c r="H68" t="n">
-        <v>462822690000000</v>
+        <v>615270328000000</v>
       </c>
       <c r="I68" t="n">
-        <v>504304300000000</v>
+        <v>623745079000000</v>
       </c>
       <c r="J68" t="n">
-        <v>541635295000000</v>
+        <v>671353524000000</v>
       </c>
       <c r="K68" t="n">
-        <v>568811435000000</v>
+        <v>699032544000000</v>
       </c>
       <c r="L68" t="n">
-        <v>615270328000000</v>
+        <v>723517800000000</v>
       </c>
       <c r="M68" t="n">
-        <v>623745079000000</v>
-      </c>
-      <c r="N68" t="n">
-        <v>671353524000000</v>
-      </c>
-      <c r="O68" t="n">
-        <v>699032544000000</v>
-      </c>
-      <c r="P68" t="n">
-        <v>723517800000000</v>
-      </c>
-      <c r="Q68" t="n">
         <v>732470169000000</v>
       </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2913,44 +2705,40 @@
           <t>I. Nợ ngắn hạn</t>
         </is>
       </c>
-      <c r="B69" t="n">
-        <v>2000000000000</v>
-      </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="n">
-        <v>1003839000000</v>
-      </c>
-      <c r="E69" t="inlineStr"/>
+        <v>1689000000</v>
+      </c>
+      <c r="E69" t="n">
+        <v>319000000</v>
+      </c>
       <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
+      <c r="G69" t="n">
+        <v>842000000</v>
+      </c>
       <c r="H69" t="n">
-        <v>1689000000</v>
+        <v>223178000000</v>
       </c>
       <c r="I69" t="n">
-        <v>319000000</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
+        <v>2311000000</v>
+      </c>
+      <c r="J69" t="n">
+        <v>5801000000</v>
+      </c>
       <c r="K69" t="n">
-        <v>842000000</v>
+        <v>7826000000</v>
       </c>
       <c r="L69" t="n">
-        <v>223178000000</v>
+        <v>121611000000</v>
       </c>
       <c r="M69" t="n">
-        <v>2311000000</v>
-      </c>
-      <c r="N69" t="n">
-        <v>5801000000</v>
-      </c>
-      <c r="O69" t="n">
-        <v>7826000000</v>
-      </c>
-      <c r="P69" t="n">
-        <v>121611000000</v>
-      </c>
-      <c r="Q69" t="n">
         <v>136300000000</v>
       </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3166,53 +2954,45 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>58857592000000</v>
+        <v>42459349000000</v>
       </c>
       <c r="C79" t="n">
-        <v>61266635000000</v>
+        <v>47484812000000</v>
       </c>
       <c r="D79" t="n">
-        <v>62925859000000</v>
+        <v>59018848000000</v>
       </c>
       <c r="E79" t="n">
-        <v>43577620000000</v>
+        <v>90642175000000</v>
       </c>
       <c r="F79" t="n">
-        <v>42459349000000</v>
+        <v>90348281000000</v>
       </c>
       <c r="G79" t="n">
-        <v>47484812000000</v>
+        <v>112458691000000</v>
       </c>
       <c r="H79" t="n">
-        <v>59018848000000</v>
+        <v>137998875000000</v>
       </c>
       <c r="I79" t="n">
-        <v>90642175000000</v>
+        <v>141200864000000</v>
       </c>
       <c r="J79" t="n">
-        <v>90348281000000</v>
+        <v>179152388000000</v>
       </c>
       <c r="K79" t="n">
-        <v>112458691000000</v>
+        <v>167562969000000</v>
       </c>
       <c r="L79" t="n">
-        <v>137998875000000</v>
+        <v>151194118000000</v>
       </c>
       <c r="M79" t="n">
-        <v>141200864000000</v>
-      </c>
-      <c r="N79" t="n">
-        <v>179152388000000</v>
-      </c>
-      <c r="O79" t="n">
-        <v>167562969000000</v>
-      </c>
-      <c r="P79" t="n">
-        <v>151194118000000</v>
-      </c>
-      <c r="Q79" t="n">
         <v>153625650000000</v>
       </c>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3221,53 +3001,45 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>48419226000000</v>
+        <v>16856490000000</v>
       </c>
       <c r="C80" t="n">
-        <v>38632337000000</v>
+        <v>21232089000000</v>
       </c>
       <c r="D80" t="n">
-        <v>36325273000000</v>
+        <v>24609538000000</v>
       </c>
       <c r="E80" t="n">
-        <v>16726745000000</v>
+        <v>43861247000000</v>
       </c>
       <c r="F80" t="n">
-        <v>16856490000000</v>
+        <v>31078825000000</v>
       </c>
       <c r="G80" t="n">
-        <v>21232089000000</v>
+        <v>45606142000000</v>
       </c>
       <c r="H80" t="n">
-        <v>24609538000000</v>
+        <v>60349404000000</v>
       </c>
       <c r="I80" t="n">
-        <v>43861247000000</v>
+        <v>57307332000000</v>
       </c>
       <c r="J80" t="n">
-        <v>31078825000000</v>
+        <v>68284029000000</v>
       </c>
       <c r="K80" t="n">
-        <v>45606142000000</v>
+        <v>61293738000000</v>
       </c>
       <c r="L80" t="n">
-        <v>60349404000000</v>
+        <v>47939774000000</v>
       </c>
       <c r="M80" t="n">
-        <v>57307332000000</v>
-      </c>
-      <c r="N80" t="n">
-        <v>68284029000000</v>
-      </c>
-      <c r="O80" t="n">
-        <v>61293738000000</v>
-      </c>
-      <c r="P80" t="n">
-        <v>47939774000000</v>
-      </c>
-      <c r="Q80" t="n">
         <v>49594400000000</v>
       </c>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3276,53 +3048,45 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>10438366000000</v>
+        <v>25602859000000</v>
       </c>
       <c r="C81" t="n">
-        <v>22634298000000</v>
+        <v>26252723000000</v>
       </c>
       <c r="D81" t="n">
-        <v>26600586000000</v>
+        <v>34409310000000</v>
       </c>
       <c r="E81" t="n">
-        <v>26850875000000</v>
+        <v>46780928000000</v>
       </c>
       <c r="F81" t="n">
-        <v>25602859000000</v>
+        <v>59269456000000</v>
       </c>
       <c r="G81" t="n">
-        <v>26252723000000</v>
+        <v>66852549000000</v>
       </c>
       <c r="H81" t="n">
-        <v>34409310000000</v>
+        <v>77649471000000</v>
       </c>
       <c r="I81" t="n">
-        <v>46780928000000</v>
+        <v>83893532000000</v>
       </c>
       <c r="J81" t="n">
-        <v>59269456000000</v>
+        <v>110868359000000</v>
       </c>
       <c r="K81" t="n">
-        <v>66852549000000</v>
+        <v>106269231000000</v>
       </c>
       <c r="L81" t="n">
-        <v>77649471000000</v>
+        <v>103254344000000</v>
       </c>
       <c r="M81" t="n">
-        <v>83893532000000</v>
-      </c>
-      <c r="N81" t="n">
-        <v>110868359000000</v>
-      </c>
-      <c r="O81" t="n">
-        <v>106269231000000</v>
-      </c>
-      <c r="P81" t="n">
-        <v>103254344000000</v>
-      </c>
-      <c r="Q81" t="n">
         <v>104031250000000</v>
       </c>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3377,53 +3141,45 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>218654681000000</v>
+        <v>252572479000000</v>
       </c>
       <c r="C84" t="n">
-        <v>231296761000000</v>
+        <v>277458651000000</v>
       </c>
       <c r="D84" t="n">
-        <v>235098792000000</v>
+        <v>287445926000000</v>
       </c>
       <c r="E84" t="n">
-        <v>249857269000000</v>
+        <v>289343731000000</v>
       </c>
       <c r="F84" t="n">
-        <v>252572479000000</v>
+        <v>316376047000000</v>
       </c>
       <c r="G84" t="n">
-        <v>277458651000000</v>
+        <v>314752525000000</v>
       </c>
       <c r="H84" t="n">
-        <v>287445926000000</v>
+        <v>328914024000000</v>
       </c>
       <c r="I84" t="n">
-        <v>289343731000000</v>
+        <v>321633599000000</v>
       </c>
       <c r="J84" t="n">
-        <v>316376047000000</v>
+        <v>318918817000000</v>
       </c>
       <c r="K84" t="n">
-        <v>314752525000000</v>
+        <v>358403785000000</v>
       </c>
       <c r="L84" t="n">
-        <v>328914024000000</v>
+        <v>387297891000000</v>
       </c>
       <c r="M84" t="n">
-        <v>321633599000000</v>
-      </c>
-      <c r="N84" t="n">
-        <v>318918817000000</v>
-      </c>
-      <c r="O84" t="n">
-        <v>358403785000000</v>
-      </c>
-      <c r="P84" t="n">
-        <v>387297891000000</v>
-      </c>
-      <c r="Q84" t="n">
         <v>381946519000000</v>
       </c>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3639,38 +3395,30 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>305999000000</v>
+        <v>425907000000</v>
       </c>
       <c r="C94" t="n">
-        <v>434008000000</v>
+        <v>266926000000</v>
       </c>
       <c r="D94" t="n">
-        <v>385465000000</v>
-      </c>
-      <c r="E94" t="n">
-        <v>364698000000</v>
-      </c>
-      <c r="F94" t="n">
-        <v>425907000000</v>
-      </c>
-      <c r="G94" t="n">
-        <v>266926000000</v>
-      </c>
-      <c r="H94" t="n">
         <v>76656000000</v>
       </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1851213000000</v>
+      </c>
+      <c r="L94" t="n">
+        <v>974338000000</v>
+      </c>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
-      <c r="O94" t="n">
-        <v>1851213000000</v>
-      </c>
-      <c r="P94" t="n">
-        <v>974338000000</v>
-      </c>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
     </row>
     <row r="95">
@@ -3749,53 +3497,45 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>308597739000000</v>
+        <v>330853376000000</v>
       </c>
       <c r="C98" t="n">
-        <v>321626694000000</v>
+        <v>364988147000000</v>
       </c>
       <c r="D98" t="n">
-        <v>327217089000000</v>
+        <v>383729925000000</v>
       </c>
       <c r="E98" t="n">
-        <v>328431848000000</v>
+        <v>420403290000000</v>
       </c>
       <c r="F98" t="n">
-        <v>330853376000000</v>
+        <v>453250854000000</v>
       </c>
       <c r="G98" t="n">
-        <v>364988147000000</v>
+        <v>475755598000000</v>
       </c>
       <c r="H98" t="n">
-        <v>383729925000000</v>
+        <v>516684338000000</v>
       </c>
       <c r="I98" t="n">
-        <v>420403290000000</v>
+        <v>519272386000000</v>
       </c>
       <c r="J98" t="n">
-        <v>453250854000000</v>
+        <v>561454375000000</v>
       </c>
       <c r="K98" t="n">
-        <v>475755598000000</v>
+        <v>585607578000000</v>
       </c>
       <c r="L98" t="n">
-        <v>516684338000000</v>
+        <v>605552384000000</v>
       </c>
       <c r="M98" t="n">
-        <v>519272386000000</v>
-      </c>
-      <c r="N98" t="n">
-        <v>561454375000000</v>
-      </c>
-      <c r="O98" t="n">
-        <v>585607578000000</v>
-      </c>
-      <c r="P98" t="n">
-        <v>605552384000000</v>
-      </c>
-      <c r="Q98" t="n">
         <v>610005199000000</v>
       </c>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3827,53 +3567,45 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>34965922000000</v>
+        <v>35001400000000</v>
       </c>
       <c r="C100" t="n">
-        <v>35001400000000</v>
+        <v>35049062000000</v>
       </c>
       <c r="D100" t="n">
-        <v>35001400000000</v>
+        <v>35049062000000</v>
       </c>
       <c r="E100" t="n">
-        <v>35001400000000</v>
+        <v>35049062000000</v>
       </c>
       <c r="F100" t="n">
-        <v>35001400000000</v>
+        <v>35109148000000</v>
       </c>
       <c r="G100" t="n">
-        <v>35049062000000</v>
+        <v>35109148000000</v>
       </c>
       <c r="H100" t="n">
-        <v>35049062000000</v>
+        <v>35109148000000</v>
       </c>
       <c r="I100" t="n">
-        <v>35049062000000</v>
+        <v>35109148000000</v>
       </c>
       <c r="J100" t="n">
-        <v>35109148000000</v>
+        <v>35172385000000</v>
       </c>
       <c r="K100" t="n">
-        <v>35109148000000</v>
+        <v>35172385000000</v>
       </c>
       <c r="L100" t="n">
-        <v>35109148000000</v>
+        <v>35172385000000</v>
       </c>
       <c r="M100" t="n">
-        <v>35109148000000</v>
-      </c>
-      <c r="N100" t="n">
         <v>35172385000000</v>
       </c>
-      <c r="O100" t="n">
-        <v>35172385000000</v>
-      </c>
-      <c r="P100" t="n">
-        <v>35172385000000</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>35172385000000</v>
-      </c>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3951,53 +3683,45 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>476617000000</v>
+        <v>476562000000</v>
       </c>
       <c r="C104" t="n">
-        <v>476567000000</v>
+        <v>476507000000</v>
       </c>
       <c r="D104" t="n">
-        <v>476562000000</v>
+        <v>476507000000</v>
       </c>
       <c r="E104" t="n">
-        <v>476562000000</v>
+        <v>476507000000</v>
       </c>
       <c r="F104" t="n">
-        <v>476562000000</v>
+        <v>476474000000</v>
       </c>
       <c r="G104" t="n">
-        <v>476507000000</v>
+        <v>476474000000</v>
       </c>
       <c r="H104" t="n">
-        <v>476507000000</v>
+        <v>476474000000</v>
       </c>
       <c r="I104" t="n">
-        <v>476507000000</v>
+        <v>476474000000</v>
       </c>
       <c r="J104" t="n">
-        <v>476474000000</v>
+        <v>476420000000</v>
       </c>
       <c r="K104" t="n">
-        <v>476474000000</v>
+        <v>476415000000</v>
       </c>
       <c r="L104" t="n">
-        <v>476474000000</v>
+        <v>476415000000</v>
       </c>
       <c r="M104" t="n">
-        <v>476474000000</v>
-      </c>
-      <c r="N104" t="n">
-        <v>476420000000</v>
-      </c>
-      <c r="O104" t="n">
         <v>476415000000</v>
       </c>
-      <c r="P104" t="n">
-        <v>476415000000</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>476415000000</v>
-      </c>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4060,19 +3784,19 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>555997000000</v>
+      </c>
+      <c r="L107" t="n">
+        <v>555997000000</v>
+      </c>
+      <c r="M107" t="n">
+        <v>555997000000</v>
+      </c>
       <c r="N107" t="inlineStr"/>
-      <c r="O107" t="n">
-        <v>555997000000</v>
-      </c>
-      <c r="P107" t="n">
-        <v>555997000000</v>
-      </c>
-      <c r="Q107" t="n">
-        <v>555997000000</v>
-      </c>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4150,53 +3874,45 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>3858169000000</v>
+        <v>5172187000000</v>
       </c>
       <c r="C111" t="n">
-        <v>5172684000000</v>
+        <v>6789643000000</v>
       </c>
       <c r="D111" t="n">
-        <v>5172679000000</v>
+        <v>6789602000000</v>
       </c>
       <c r="E111" t="n">
-        <v>5172660000000</v>
+        <v>6789525000000</v>
       </c>
       <c r="F111" t="n">
-        <v>5172187000000</v>
+        <v>6784301000000</v>
       </c>
       <c r="G111" t="n">
-        <v>6789643000000</v>
+        <v>9155896000000</v>
       </c>
       <c r="H111" t="n">
-        <v>6789602000000</v>
+        <v>9155659000000</v>
       </c>
       <c r="I111" t="n">
-        <v>6789525000000</v>
+        <v>9151551000000</v>
       </c>
       <c r="J111" t="n">
-        <v>6784301000000</v>
+        <v>9151450000000</v>
       </c>
       <c r="K111" t="n">
-        <v>9155896000000</v>
+        <v>11608569000000</v>
       </c>
       <c r="L111" t="n">
-        <v>9155659000000</v>
+        <v>11606679000000</v>
       </c>
       <c r="M111" t="n">
-        <v>9151551000000</v>
-      </c>
-      <c r="N111" t="n">
-        <v>9151450000000</v>
-      </c>
-      <c r="O111" t="n">
-        <v>11608569000000</v>
-      </c>
-      <c r="P111" t="n">
-        <v>11606679000000</v>
-      </c>
-      <c r="Q111" t="n">
         <v>43386686000000</v>
       </c>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4320,43 +4036,37 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-26000000</v>
+        <v>-1749000000</v>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="n">
-        <v>12359000000</v>
+        <v>1803000000</v>
       </c>
       <c r="E117" t="n">
-        <v>-1105000000</v>
+        <v>3468000000</v>
       </c>
       <c r="F117" t="n">
-        <v>-1749000000</v>
+        <v>15000000</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="n">
-        <v>1803000000</v>
+        <v>2965000000</v>
       </c>
       <c r="I117" t="n">
-        <v>3468000000</v>
-      </c>
-      <c r="J117" t="n">
-        <v>15000000</v>
-      </c>
+        <v>13987000000</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
-        <v>2965000000</v>
+        <v>4648000000</v>
       </c>
       <c r="M117" t="n">
-        <v>13987000000</v>
+        <v>1302000000</v>
       </c>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
-      <c r="P117" t="n">
-        <v>4648000000</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>1302000000</v>
-      </c>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
